--- a/Project Evaluation Data.xlsx
+++ b/Project Evaluation Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinshah/Documents/UMichWinter2017/EECS486/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yashan/Documents/EECS486/finalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>GM</t>
   </si>
@@ -48,19 +48,37 @@
   </si>
   <si>
     <t>% Change</t>
+  </si>
+  <si>
+    <t>% positivity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,9 +101,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,15 +384,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -408,8 +429,11 @@
       <c r="L1" s="1">
         <v>42835</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -451,8 +475,11 @@
       <c r="L2">
         <v>33.97</v>
       </c>
+      <c r="M2" s="3">
+        <v>-1.6299999999999999E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -494,8 +521,11 @@
       <c r="L3">
         <v>11.25</v>
       </c>
+      <c r="M3" s="3">
+        <v>7.4999999999999997E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -537,8 +567,11 @@
       <c r="L4">
         <v>29.6</v>
       </c>
+      <c r="M4" s="3">
+        <v>8.8000000000000005E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -580,8 +613,11 @@
       <c r="L5">
         <v>105.98</v>
       </c>
+      <c r="M5" s="3">
+        <v>7.1999999999999998E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -622,6 +658,9 @@
       </c>
       <c r="L6">
         <v>312.39</v>
+      </c>
+      <c r="M6" s="4">
+        <v>6.5399999999999998E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Project Evaluation Data.xlsx
+++ b/Project Evaluation Data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yashan/Documents/EECS486/finalProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benrathi/Desktop/College_Senior/Winter 2017/EECS 486/Project/code/EECS486project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcMode="autoNoTable" iterate="1" iterateCount="1000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>GM</t>
   </si>
@@ -50,7 +50,52 @@
     <t>% Change</t>
   </si>
   <si>
-    <t>% positivity</t>
+    <t>% Change 4/3-4/10</t>
+  </si>
+  <si>
+    <t>Accurate?</t>
+  </si>
+  <si>
+    <t>Correlation:</t>
+  </si>
+  <si>
+    <t>IPD (Auto Industry ETF)</t>
+  </si>
+  <si>
+    <t>Average of 5 stocks:</t>
+  </si>
+  <si>
+    <t>% positivity (all tweets)</t>
+  </si>
+  <si>
+    <t>% positivity ( &gt; 1000)</t>
+  </si>
+  <si>
+    <t>% positivity ( &gt; 10000)</t>
+  </si>
+  <si>
+    <t>Evaluation:</t>
+  </si>
+  <si>
+    <t>-Correlation between % change (week) and % positivity</t>
+  </si>
+  <si>
+    <t>-Accuracy (whether sign of our prediction matches weekly price movement)</t>
+  </si>
+  <si>
+    <t>Analysis:</t>
+  </si>
+  <si>
+    <t>-Follower count(s) correlations</t>
+  </si>
+  <si>
+    <t>-Industry correlation (auto ETF) with each stock</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>-"The greater the % change, the further our model is"</t>
   </si>
 </sst>
 </file>
@@ -69,16 +114,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Menlo"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,12 +149,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,56 +433,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.33203125" customWidth="1"/>
+    <col min="21" max="21" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="4">
         <v>42828</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="4">
         <v>42829</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="4">
         <v>42830</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="4">
         <v>42831</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="4">
         <v>42832</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="4">
         <v>42835</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -475,11 +553,38 @@
       <c r="L2">
         <v>33.97</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="1">
+        <f>(L2-B2)/B2</f>
+        <v>-5.8530875036582625E-3</v>
+      </c>
+      <c r="N2" s="1">
         <v>-1.6299999999999999E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O2" t="str">
+        <f>IF(OR(AND(N2&gt;0,$M2&gt;0),AND(N2&lt;0,$M2&lt;0)),"YES","NO")</f>
+        <v>YES</v>
+      </c>
+      <c r="P2" s="1">
+        <f>ABS(N2-M2)</f>
+        <v>1.0446912496341736E-2</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>-3.31E-3</v>
+      </c>
+      <c r="R2" t="str">
+        <f>IF(OR(AND(Q2&gt;0,$M2&gt;0),AND(Q2&lt;0,$M2&lt;0)),"YES","NO")</f>
+        <v>YES</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1.46E-2</v>
+      </c>
+      <c r="T2" t="str">
+        <f>IF(OR(AND(S2&gt;0,$M2&gt;0),AND(S2&lt;0,$M2&lt;0)),"YES","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -487,45 +592,72 @@
         <v>11.44</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C6" si="0">(D3-B3)/B3*100</f>
+        <f t="shared" ref="C3:C7" si="0">(D3-B3)/B3*100</f>
         <v>-0.61188811188811443</v>
       </c>
       <c r="D3">
         <v>11.37</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E6" si="1">(F3-D3)/D3*100</f>
+        <f t="shared" ref="E3:E7" si="1">(F3-D3)/D3*100</f>
         <v>-0.96745822339489396</v>
       </c>
       <c r="F3">
         <v>11.26</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G6" si="2">(H3-F3)/F3*100</f>
+        <f t="shared" ref="G3:G7" si="2">(H3-F3)/F3*100</f>
         <v>8.8809946714030072E-2</v>
       </c>
       <c r="H3">
         <v>11.27</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I6" si="3">(J3-H3)/H3*100</f>
+        <f t="shared" ref="I3:I7" si="3">(J3-H3)/H3*100</f>
         <v>-0.35492457852705545</v>
       </c>
       <c r="J3">
         <v>11.23</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K6" si="4">(L3-J3)/J3*100</f>
+        <f t="shared" ref="K3:K7" si="4">(L3-J3)/J3*100</f>
         <v>0.17809439002671035</v>
       </c>
       <c r="L3">
         <v>11.25</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="1">
+        <f>(L3-B3)/B3</f>
+        <v>-1.6608391608391566E-2</v>
+      </c>
+      <c r="N3" s="1">
         <v>7.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O3" t="str">
+        <f t="shared" ref="O3" si="5">IF(OR(AND(N3&gt;0,$M3&gt;0),AND(N3&lt;0,$M3&lt;0)),"YES","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P6" si="6">ABS(N3-M3)</f>
+        <v>2.4108391608391566E-2</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>6.3499999999999997E-3</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:T6" si="7">IF(OR(AND(Q3&gt;0,$M3&gt;0),AND(Q3&lt;0,$M3&lt;0)),"YES","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="S3" s="1">
+        <v>-1.6629999999999999E-2</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -567,11 +699,38 @@
       <c r="L4">
         <v>29.6</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M7" si="8">(L4-B4)/B4</f>
+        <v>-1.2345679012345593E-2</v>
+      </c>
+      <c r="N4" s="1">
         <v>8.8000000000000005E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O4" t="str">
+        <f t="shared" ref="O4" si="9">IF(OR(AND(N4&gt;0,$M4&gt;0),AND(N4&lt;0,$M4&lt;0)),"YES","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="6"/>
+        <v>2.1145679012345594E-2</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2.3560000000000001E-2</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="S4" s="1">
+        <v>3.49E-2</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -613,11 +772,38 @@
       <c r="L5">
         <v>105.98</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="1">
+        <f t="shared" si="8"/>
+        <v>-2.3405823811278953E-2</v>
+      </c>
+      <c r="N5" s="1">
         <v>7.1999999999999998E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O5" t="str">
+        <f t="shared" ref="O5" si="10">IF(OR(AND(N5&gt;0,$M5&gt;0),AND(N5&lt;0,$M5&lt;0)),"YES","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="6"/>
+        <v>3.0605823811278951E-2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>5.1200000000000004E-3</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="S5" s="1">
+        <v>4.4749999999999998E-2</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -659,8 +845,158 @@
       <c r="L6">
         <v>312.39</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="1">
+        <f t="shared" si="8"/>
+        <v>4.6462548572959957E-2</v>
+      </c>
+      <c r="N6" s="1">
         <v>6.5399999999999998E-3</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" ref="O6" si="11">IF(OR(AND(N6&gt;0,$M6&gt;0),AND(N6&lt;0,$M6&lt;0)),"YES","NO")</f>
+        <v>YES</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="6"/>
+        <v>3.9922548572959959E-2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1.231E-2</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+      <c r="S6" s="1">
+        <v>2.3650000000000001E-2</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="1">
+        <f>AVERAGE(M2:M6)</f>
+        <v>-2.3500866725428837E-3</v>
+      </c>
+      <c r="N7" s="1">
+        <f>AVERAGE(N2:N6)</f>
+        <v>2.7480000000000004E-3</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1">
+        <f>AVERAGE(Q2:Q6)</f>
+        <v>8.8060000000000013E-3</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1">
+        <f>AVERAGE(S2:S6)</f>
+        <v>2.0254000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>37.96</v>
+      </c>
+      <c r="C9">
+        <f>(D9-B9)/B9*100</f>
+        <v>-0.23709167544784882</v>
+      </c>
+      <c r="D9">
+        <v>37.869999999999997</v>
+      </c>
+      <c r="E9">
+        <f>(F9-D9)/D9*100</f>
+        <v>-0.44890414576180249</v>
+      </c>
+      <c r="F9">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G9">
+        <f>(H9-F9)/F9*100</f>
+        <v>-0.13262599469497149</v>
+      </c>
+      <c r="H9">
+        <v>37.65</v>
+      </c>
+      <c r="I9">
+        <f>(J9-H9)/H9*100</f>
+        <v>-0.15936254980078399</v>
+      </c>
+      <c r="J9">
+        <v>37.590000000000003</v>
+      </c>
+      <c r="K9">
+        <f>(L9-J9)/J9*100</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>37.590000000000003</v>
+      </c>
+      <c r="M9" s="1">
+        <f>(L9-B9)/B9</f>
+        <v>-9.7471022128555705E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <f>CORREL(M2:M6,N2:N6)</f>
+        <v>2.4919845879028381E-2</v>
+      </c>
+      <c r="Q11">
+        <f>CORREL(M2:M6,Q2:Q6)</f>
+        <v>0.1600845194782988</v>
+      </c>
+      <c r="S11">
+        <f>CORREL(M2:M6,S2:S6)</f>
+        <v>1.8674613466391494E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Project Evaluation Data.xlsx
+++ b/Project Evaluation Data.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benrathi/Desktop/College_Senior/Winter 2017/EECS 486/Project/code/EECS486project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinshah/Documents/UMichWinter2017/EECS486/Project/EECS486project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="27360" windowHeight="15880" tabRatio="500"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="27360" windowHeight="15880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" calcMode="autoNoTable" iterate="1" iterateCount="1000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>GM</t>
   </si>
@@ -96,6 +97,18 @@
   </si>
   <si>
     <t>-"The greater the % change, the further our model is"</t>
+  </si>
+  <si>
+    <t>Correct Predictions</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -149,13 +162,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,35 +607,35 @@
         <v>11.44</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C7" si="0">(D3-B3)/B3*100</f>
+        <f t="shared" ref="C3:C6" si="0">(D3-B3)/B3*100</f>
         <v>-0.61188811188811443</v>
       </c>
       <c r="D3">
         <v>11.37</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E7" si="1">(F3-D3)/D3*100</f>
+        <f t="shared" ref="E3:E6" si="1">(F3-D3)/D3*100</f>
         <v>-0.96745822339489396</v>
       </c>
       <c r="F3">
         <v>11.26</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G7" si="2">(H3-F3)/F3*100</f>
+        <f t="shared" ref="G3:G6" si="2">(H3-F3)/F3*100</f>
         <v>8.8809946714030072E-2</v>
       </c>
       <c r="H3">
         <v>11.27</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I7" si="3">(J3-H3)/H3*100</f>
+        <f t="shared" ref="I3:I6" si="3">(J3-H3)/H3*100</f>
         <v>-0.35492457852705545</v>
       </c>
       <c r="J3">
         <v>11.23</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K7" si="4">(L3-J3)/J3*100</f>
+        <f t="shared" ref="K3:K6" si="4">(L3-J3)/J3*100</f>
         <v>0.17809439002671035</v>
       </c>
       <c r="L3">
@@ -700,7 +715,7 @@
         <v>29.6</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" ref="M4:M7" si="8">(L4-B4)/B4</f>
+        <f t="shared" ref="M4:M6" si="8">(L4-B4)/B4</f>
         <v>-1.2345679012345593E-2</v>
       </c>
       <c r="N4" s="1">
@@ -1002,4 +1017,471 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>42825</v>
+      </c>
+      <c r="C1" s="4">
+        <v>42828</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4">
+        <v>42829</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4">
+        <v>42830</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4">
+        <v>42831</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="4">
+        <v>42832</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="4">
+        <v>42835</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>35.36</v>
+      </c>
+      <c r="C2">
+        <v>34.17</v>
+      </c>
+      <c r="D2">
+        <f>(E2-C2)/C2*100</f>
+        <v>0.29265437518291315</v>
+      </c>
+      <c r="E2">
+        <v>34.270000000000003</v>
+      </c>
+      <c r="F2">
+        <f>(G2-E2)/E2*100</f>
+        <v>-0.78786110300555334</v>
+      </c>
+      <c r="G2">
+        <v>34</v>
+      </c>
+      <c r="H2">
+        <f>(I2-G2)/G2*100</f>
+        <v>0.47058823529410765</v>
+      </c>
+      <c r="I2">
+        <v>34.159999999999997</v>
+      </c>
+      <c r="J2">
+        <f>(K2-I2)/I2*100</f>
+        <v>-1.3173302107728213</v>
+      </c>
+      <c r="K2">
+        <v>33.71</v>
+      </c>
+      <c r="L2">
+        <f>(M2-K2)/K2*100</f>
+        <v>0.77128448531592408</v>
+      </c>
+      <c r="M2">
+        <v>33.97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>11.64</v>
+      </c>
+      <c r="C3">
+        <v>11.44</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">(E3-C3)/C3*100</f>
+        <v>-0.61188811188811443</v>
+      </c>
+      <c r="E3">
+        <v>11.37</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F6" si="1">(G3-E3)/E3*100</f>
+        <v>-0.96745822339489396</v>
+      </c>
+      <c r="G3">
+        <v>11.26</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H6" si="2">(I3-G3)/G3*100</f>
+        <v>8.8809946714030072E-2</v>
+      </c>
+      <c r="I3">
+        <v>11.27</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J6" si="3">(K3-I3)/I3*100</f>
+        <v>-0.35492457852705545</v>
+      </c>
+      <c r="K3">
+        <v>11.23</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L6" si="4">(M3-K3)/K3*100</f>
+        <v>0.17809439002671035</v>
+      </c>
+      <c r="M3">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>29.99</v>
+      </c>
+      <c r="C4">
+        <v>29.97</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-1.0677344010677352</v>
+      </c>
+      <c r="E4">
+        <v>29.65</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>-1.1804384485666033</v>
+      </c>
+      <c r="G4">
+        <v>29.3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>-0.51194539249147486</v>
+      </c>
+      <c r="I4">
+        <v>29.15</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>-0.30874785591766674</v>
+      </c>
+      <c r="K4">
+        <v>29.06</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>1.8582243633861069</v>
+      </c>
+      <c r="M4">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>108.62</v>
+      </c>
+      <c r="C5">
+        <v>108.52</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-0.46995945447842874</v>
+      </c>
+      <c r="E5">
+        <v>108.01</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>-1.7313211739653778</v>
+      </c>
+      <c r="G5">
+        <v>106.14</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>-0.60297719992462839</v>
+      </c>
+      <c r="I5">
+        <v>105.5</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>0.38862559241705835</v>
+      </c>
+      <c r="K5">
+        <v>105.91</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>6.6093853271652722E-2</v>
+      </c>
+      <c r="M5">
+        <v>105.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>278.3</v>
+      </c>
+      <c r="C6">
+        <v>298.52</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1.7352271204609429</v>
+      </c>
+      <c r="E6">
+        <v>303.7</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>-2.8646690813302564</v>
+      </c>
+      <c r="G6">
+        <v>295</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>1.2542372881355894</v>
+      </c>
+      <c r="I6">
+        <v>298.7</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>1.2855708068296057</v>
+      </c>
+      <c r="K6">
+        <v>302.54000000000002</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>3.2557678323527348</v>
+      </c>
+      <c r="M6">
+        <v>312.39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.8799999999999998E-3</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1">
+        <v>1.3350000000000001E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2.188E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5.1900000000000002E-3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2.436E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-0.16969000000000001</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-4.2999999999999999E-4</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>1.213E-2</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>0.15583</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <v>6.0519999999999997E-2</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1">
+        <v>-5.5399999999999998E-3</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1">
+        <v>-1.06E-3</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-4.2380000000000001E-2</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>-1.6000000000000001E-4</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <v>1.9040000000000001E-2</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1">
+        <v>-4.2380000000000001E-2</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <v>1.448E-2</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.248E-2</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>1.7799999999999999E-3</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>1.1520000000000001E-2</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <v>1.8319999999999999E-2</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1">
+        <v>1.248E-2</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1">
+        <v>9.2399999999999999E-3</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.6810000000000002E-2</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>1.7309999999999999E-2</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>1.295E-2</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <v>1.3849999999999999E-2</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1">
+        <v>7.9000000000000001E-4</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
+        <v>-5.3400000000000001E-3</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16">
+        <f>O14/O15</f>
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>